--- a/biology/Médecine/Bibliothèque_Osler_de_l'histoire_de_la_médecine_de_l'Université_McGill/Bibliothèque_Osler_de_l'histoire_de_la_médecine_de_l'Université_McGill.xlsx
+++ b/biology/Médecine/Bibliothèque_Osler_de_l'histoire_de_la_médecine_de_l'Université_McGill/Bibliothèque_Osler_de_l'histoire_de_la_médecine_de_l'Université_McGill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_Osler_de_l%27histoire_de_la_m%C3%A9decine_de_l%27Universit%C3%A9_McGill</t>
+          <t>Bibliothèque_Osler_de_l'histoire_de_la_médecine_de_l'Université_McGill</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La bibliothèque Osler est une bibliothèque qui appartient au réseau des bibliothèques de l'Université McGill.
-La bibliothèque Osler regroupe près 100 000 ouvrages[1] portant sur les sciences de la santé et constitue l'une des plus grandes bibliothèques de ce genre en Amérique du Nord. Elle compte également de nombreux autres documents tels que des photographies, des lettres, des illustrations ainsi que des artefacts. Elle est située dans l'édifice McIntyre qui abrite les facultés de sciences médicales de l'Université McGill.
+La bibliothèque Osler regroupe près 100 000 ouvrages portant sur les sciences de la santé et constitue l'une des plus grandes bibliothèques de ce genre en Amérique du Nord. Elle compte également de nombreux autres documents tels que des photographies, des lettres, des illustrations ainsi que des artefacts. Elle est située dans l'édifice McIntyre qui abrite les facultés de sciences médicales de l'Université McGill.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_Osler_de_l%27histoire_de_la_m%C3%A9decine_de_l%27Universit%C3%A9_McGill</t>
+          <t>Bibliothèque_Osler_de_l'histoire_de_la_médecine_de_l'Université_McGill</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'origine, la bibliothèque Osler logeait dans le pavillon Strathcona sur le campus de l'Université McGill. Sa conception fut l'œuvre de l'architecte Percy Erskine Nobbs[2] qui choisit l'utilisation de boiseries de chêne pour les étagères et les meubles. Lors du réaménagement de la bibliothèque en 1965 dans l'édifice McIntyre, l'entièreté du mobilier fut conservé, de même que les nombreux vitraux d'origine. On y retrouve également les cendres de Sir William Osler, celles de son épouse, ainsi que celles du premier bibliothécaire, le Dr W.W. Francis[3]. La bibliothèque a accueilli de nombreuses expositions, permanentes ou temporaires, des lectures et conférences et continue d'être, à ce jour, une institution vivante soucieuse de rester accessible au grande public.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine, la bibliothèque Osler logeait dans le pavillon Strathcona sur le campus de l'Université McGill. Sa conception fut l'œuvre de l'architecte Percy Erskine Nobbs qui choisit l'utilisation de boiseries de chêne pour les étagères et les meubles. Lors du réaménagement de la bibliothèque en 1965 dans l'édifice McIntyre, l'entièreté du mobilier fut conservé, de même que les nombreux vitraux d'origine. On y retrouve également les cendres de Sir William Osler, celles de son épouse, ainsi que celles du premier bibliothécaire, le Dr W.W. Francis. La bibliothèque a accueilli de nombreuses expositions, permanentes ou temporaires, des lectures et conférences et continue d'être, à ce jour, une institution vivante soucieuse de rester accessible au grande public.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_Osler_de_l%27histoire_de_la_m%C3%A9decine_de_l%27Universit%C3%A9_McGill</t>
+          <t>Bibliothèque_Osler_de_l'histoire_de_la_médecine_de_l'Université_McGill</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>La collection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bibliothèque Osler fut inaugurée en 1929 grâce au don du médecin, professeur, chercheur et collectionneur William Osler, qui légue à sa mort en 1919 une collection d'environ 8 000 ouvrages sur l'histoire de la médecine. Passionné de lecture, Osler acquiert, tout au long de sa carrière, nombre de manuscrits exceptionnels, allant des grands penseurs de la médecine aux philosophes de la science, dont notamment plusieurs imprimés de l'écrivain Sir Thomas Browne, de Rabelais et de Copernic[1]. Tous les titres qui ont composé la bibliothèque privée de William Osler sont regroupés sous forme de catalogue, The Bibliotheca Osleriana[4], disponible en version imprimée ou électronique.
-La collection de la bibliothèque Osler n'a cessé de s'élargir depuis sa fondation. Totalisant aujourd'hui plus de 100 000 documents, elle comprend des livres rares datant du Moyen Âge et de la Renaissance dont plus de 150 incunables, un ensemble d'environ 30 000 thèses de médecine du XIXe siècle et plus de 3 000 almanacs[5] du XIXe et XXe siècles qui rendent compte de la culture médicale de l'époque. Elle est aussi enrichie d'une importante collection de lithographies, d'illustrations, d'atlas d'anatomie qui « témoignent de l'évolution [...] à la fois de la compréhension du corps humain et de l'esthétique de sa représentation »[6]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bibliothèque Osler fut inaugurée en 1929 grâce au don du médecin, professeur, chercheur et collectionneur William Osler, qui légue à sa mort en 1919 une collection d'environ 8 000 ouvrages sur l'histoire de la médecine. Passionné de lecture, Osler acquiert, tout au long de sa carrière, nombre de manuscrits exceptionnels, allant des grands penseurs de la médecine aux philosophes de la science, dont notamment plusieurs imprimés de l'écrivain Sir Thomas Browne, de Rabelais et de Copernic. Tous les titres qui ont composé la bibliothèque privée de William Osler sont regroupés sous forme de catalogue, The Bibliotheca Osleriana, disponible en version imprimée ou électronique.
+La collection de la bibliothèque Osler n'a cessé de s'élargir depuis sa fondation. Totalisant aujourd'hui plus de 100 000 documents, elle comprend des livres rares datant du Moyen Âge et de la Renaissance dont plus de 150 incunables, un ensemble d'environ 30 000 thèses de médecine du XIXe siècle et plus de 3 000 almanacs du XIXe et XXe siècles qui rendent compte de la culture médicale de l'époque. Elle est aussi enrichie d'une importante collection de lithographies, d'illustrations, d'atlas d'anatomie qui « témoignent de l'évolution [...] à la fois de la compréhension du corps humain et de l'esthétique de sa représentation »
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Biblioth%C3%A8que_Osler_de_l%27histoire_de_la_m%C3%A9decine_de_l%27Universit%C3%A9_McGill</t>
+          <t>Bibliothèque_Osler_de_l'histoire_de_la_médecine_de_l'Université_McGill</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Collection d'archives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Parmi les collections spéciales de la bibliothèque, on trouve un ensemble de plus de 200 fonds d'archives[7], parmi lesquels le Wilder Penfield Archive[8] qui comprend des documents fondateurs retraçant l'histoire de la neurologie à l'Institut neurologique de Montréal et à l'Université McGill et qui trace le parcours professionnel du neuro-chirurgien Wilder Penfield. Également, la Sir William Osler collection[9] présente un fonds d'archives qui regroupe les écrits personnels d'Osler. Ces archives contiennent des correspondances (18 000 lettres originales), des carnets de notes, des journaux personnels, des notes de lecture ainsi que des photographies.
-Composition de la collection</t>
+Parmi les collections spéciales de la bibliothèque, on trouve un ensemble de plus de 200 fonds d'archives, parmi lesquels le Wilder Penfield Archive qui comprend des documents fondateurs retraçant l'histoire de la neurologie à l'Institut neurologique de Montréal et à l'Université McGill et qui trace le parcours professionnel du neuro-chirurgien Wilder Penfield. Également, la Sir William Osler collection présente un fonds d'archives qui regroupe les écrits personnels d'Osler. Ces archives contiennent des correspondances (18 000 lettres originales), des carnets de notes, des journaux personnels, des notes de lecture ainsi que des photographies.
+</t>
         </is>
       </c>
     </row>
